--- a/HR/加班录入.xlsx
+++ b/HR/加班录入.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\uipath\HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A881BE20-89B0-45A9-B55A-EADC05243147}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F0655B-5532-4800-B978-0B4693DDD606}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,25 +109,6 @@
   <si>
     <t xml:space="preserve">
 餐补金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021/3/21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021/3/24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021/3/22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021年4月</t>
-  </si>
-  <si>
-    <t>2021年4月</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -135,8 +116,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -174,13 +156,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -464,15 +447,15 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="10.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.25" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.125" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23.75" customWidth="1"/>
@@ -485,7 +468,7 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
@@ -523,8 +506,8 @@
       <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>25</v>
+      <c r="C2" s="4">
+        <v>44287</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -532,11 +515,11 @@
       <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>23</v>
+      <c r="F2" s="3">
+        <v>44277</v>
+      </c>
+      <c r="G2" s="3">
+        <v>44277</v>
       </c>
       <c r="H2">
         <v>8</v>
@@ -561,8 +544,8 @@
       <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>24</v>
+      <c r="C3" s="4">
+        <v>44287</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
@@ -570,11 +553,11 @@
       <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>22</v>
+      <c r="F3" s="3">
+        <v>44279</v>
+      </c>
+      <c r="G3" s="3">
+        <v>44280</v>
       </c>
       <c r="H3">
         <v>8</v>
@@ -599,8 +582,8 @@
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>24</v>
+      <c r="C4" s="4">
+        <v>44287</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
@@ -608,11 +591,11 @@
       <c r="E4" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>21</v>
+      <c r="F4" s="3">
+        <v>44276</v>
+      </c>
+      <c r="G4" s="3">
+        <v>44277</v>
       </c>
       <c r="H4">
         <v>8</v>
